--- a/Accounting/financial statement analysis.xlsx
+++ b/Accounting/financial statement analysis.xlsx
@@ -20,6 +20,7 @@
     <sheet name="Pt. 5 Income Statement Analysis" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1843,56 +1844,84 @@
     </xf>
     <xf numFmtId="168" fontId="24" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="22" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="12" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="39" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="40" fillId="12" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="11" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="15" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="15" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="11" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="2" fillId="11" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="9" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="9" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="9" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="15" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="15" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="15" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="17" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="8" fontId="38" fillId="23" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1906,9 +1935,12 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1925,6 +1957,50 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="11" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1981,81 +2057,6 @@
     <xf numFmtId="0" fontId="21" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="12" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="2" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="39" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="40" fillId="12" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="11" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="15" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="15" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="11" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="2" fillId="11" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="9" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="9" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="9" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="15" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="15" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="15" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="17" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="8" fontId="38" fillId="23" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2151,6 +2152,10 @@
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2372,17 +2377,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="237" t="s">
+      <c r="A1" s="255" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="229"/>
-      <c r="C1" s="229"/>
-      <c r="D1" s="229"/>
-      <c r="E1" s="229"/>
-      <c r="F1" s="229"/>
-      <c r="G1" s="229"/>
-      <c r="H1" s="229"/>
-      <c r="I1" s="229"/>
+      <c r="B1" s="246"/>
+      <c r="C1" s="246"/>
+      <c r="D1" s="246"/>
+      <c r="E1" s="246"/>
+      <c r="F1" s="246"/>
+      <c r="G1" s="246"/>
+      <c r="H1" s="246"/>
+      <c r="I1" s="246"/>
     </row>
     <row r="2" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B2" s="1"/>
@@ -2398,25 +2403,25 @@
     <row r="5" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="G5" s="238" t="s">
+      <c r="G5" s="256" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="229"/>
-      <c r="I5" s="229"/>
-      <c r="J5" s="239" t="s">
+      <c r="H5" s="246"/>
+      <c r="I5" s="246"/>
+      <c r="J5" s="257" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="213"/>
-      <c r="M5" s="240" t="s">
+      <c r="K5" s="258"/>
+      <c r="M5" s="259" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="204"/>
-      <c r="O5" s="204"/>
-      <c r="P5" s="204"/>
-      <c r="Q5" s="204"/>
-      <c r="R5" s="204"/>
-      <c r="S5" s="204"/>
-      <c r="T5" s="208"/>
+      <c r="N5" s="260"/>
+      <c r="O5" s="260"/>
+      <c r="P5" s="260"/>
+      <c r="Q5" s="260"/>
+      <c r="R5" s="260"/>
+      <c r="S5" s="260"/>
+      <c r="T5" s="261"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -2431,26 +2436,26 @@
       <c r="G6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="241" t="s">
+      <c r="H6" s="262" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="213"/>
-      <c r="J6" s="239" t="s">
+      <c r="I6" s="258"/>
+      <c r="J6" s="257" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="213"/>
-      <c r="M6" s="242" t="s">
+      <c r="K6" s="258"/>
+      <c r="M6" s="263" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="229"/>
-      <c r="O6" s="229"/>
-      <c r="P6" s="229"/>
-      <c r="Q6" s="243" t="s">
+      <c r="N6" s="246"/>
+      <c r="O6" s="246"/>
+      <c r="P6" s="246"/>
+      <c r="Q6" s="264" t="s">
         <v>8</v>
       </c>
-      <c r="R6" s="229"/>
-      <c r="S6" s="229"/>
-      <c r="T6" s="233"/>
+      <c r="R6" s="246"/>
+      <c r="S6" s="246"/>
+      <c r="T6" s="251"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -2473,18 +2478,18 @@
       <c r="I7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="245" t="s">
+      <c r="J7" s="266" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="213"/>
-      <c r="M7" s="230"/>
-      <c r="N7" s="206"/>
-      <c r="O7" s="206"/>
-      <c r="P7" s="206"/>
-      <c r="Q7" s="230"/>
-      <c r="R7" s="206"/>
-      <c r="S7" s="206"/>
-      <c r="T7" s="244"/>
+      <c r="K7" s="258"/>
+      <c r="M7" s="247"/>
+      <c r="N7" s="248"/>
+      <c r="O7" s="248"/>
+      <c r="P7" s="248"/>
+      <c r="Q7" s="247"/>
+      <c r="R7" s="248"/>
+      <c r="S7" s="248"/>
+      <c r="T7" s="265"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -2501,23 +2506,23 @@
       <c r="G8" s="24"/>
       <c r="H8" s="24"/>
       <c r="I8" s="24"/>
-      <c r="J8" s="283" t="s">
+      <c r="J8" s="213" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="283" t="s">
+      <c r="K8" s="213" t="s">
         <v>14</v>
       </c>
-      <c r="M8" s="228" t="s">
+      <c r="M8" s="245" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="229"/>
-      <c r="O8" s="229"/>
+      <c r="N8" s="246"/>
+      <c r="O8" s="246"/>
       <c r="P8" s="6"/>
-      <c r="Q8" s="231" t="s">
+      <c r="Q8" s="249" t="s">
         <v>16</v>
       </c>
-      <c r="R8" s="229"/>
-      <c r="S8" s="229"/>
+      <c r="R8" s="246"/>
+      <c r="S8" s="246"/>
       <c r="T8" s="6"/>
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
@@ -2534,24 +2539,24 @@
       <c r="G9" s="7">
         <v>43891</v>
       </c>
-      <c r="H9" s="279" t="s">
+      <c r="H9" s="209" t="s">
         <v>17</v>
       </c>
       <c r="I9" s="130"/>
-      <c r="J9" s="280">
+      <c r="J9" s="210">
         <v>25895.9</v>
       </c>
       <c r="K9" s="132"/>
-      <c r="M9" s="230"/>
-      <c r="N9" s="206"/>
-      <c r="O9" s="206"/>
-      <c r="P9" s="285">
+      <c r="M9" s="247"/>
+      <c r="N9" s="248"/>
+      <c r="O9" s="248"/>
+      <c r="P9" s="215">
         <v>25895.9</v>
       </c>
-      <c r="Q9" s="206"/>
-      <c r="R9" s="206"/>
-      <c r="S9" s="206"/>
-      <c r="T9" s="285">
+      <c r="Q9" s="248"/>
+      <c r="R9" s="248"/>
+      <c r="S9" s="248"/>
+      <c r="T9" s="215">
         <v>25895.9</v>
       </c>
       <c r="V9" s="2"/>
@@ -2573,22 +2578,22 @@
       <c r="I10" s="131">
         <v>302433</v>
       </c>
-      <c r="J10" s="274"/>
-      <c r="K10" s="276">
+      <c r="J10" s="204"/>
+      <c r="K10" s="206">
         <v>20000</v>
       </c>
-      <c r="M10" s="232" t="s">
+      <c r="M10" s="250" t="s">
         <v>19</v>
       </c>
-      <c r="N10" s="229"/>
-      <c r="O10" s="229"/>
-      <c r="P10" s="233"/>
-      <c r="Q10" s="246">
+      <c r="N10" s="246"/>
+      <c r="O10" s="246"/>
+      <c r="P10" s="251"/>
+      <c r="Q10" s="267">
         <v>0</v>
       </c>
-      <c r="R10" s="206"/>
-      <c r="S10" s="206"/>
-      <c r="T10" s="244"/>
+      <c r="R10" s="248"/>
+      <c r="S10" s="248"/>
+      <c r="T10" s="265"/>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
@@ -2609,18 +2614,18 @@
       <c r="I11" s="131">
         <v>302434</v>
       </c>
-      <c r="J11" s="274"/>
-      <c r="K11" s="275">
+      <c r="J11" s="204"/>
+      <c r="K11" s="205">
         <v>600</v>
       </c>
-      <c r="M11" s="234"/>
-      <c r="N11" s="235"/>
-      <c r="O11" s="235"/>
-      <c r="P11" s="236"/>
+      <c r="M11" s="252"/>
+      <c r="N11" s="253"/>
+      <c r="O11" s="253"/>
+      <c r="P11" s="254"/>
       <c r="Q11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T11" s="285">
+      <c r="T11" s="215">
         <v>0</v>
       </c>
       <c r="V11" s="2"/>
@@ -2644,20 +2649,20 @@
       <c r="I12" s="131">
         <v>302435</v>
       </c>
-      <c r="J12" s="274"/>
-      <c r="K12" s="276">
+      <c r="J12" s="204"/>
+      <c r="K12" s="206">
         <v>630</v>
       </c>
       <c r="M12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="P12" s="285">
+      <c r="P12" s="215">
         <v>174.23</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T12" s="285">
+      <c r="T12" s="215">
         <v>174.23</v>
       </c>
       <c r="U12" s="47"/>
@@ -2680,20 +2685,20 @@
       <c r="I13" s="131">
         <v>302436</v>
       </c>
-      <c r="J13" s="275">
+      <c r="J13" s="205">
         <v>25776.87</v>
       </c>
-      <c r="K13" s="274"/>
+      <c r="K13" s="204"/>
       <c r="M13" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="P13" s="285">
+      <c r="P13" s="215">
         <v>275</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="T13" s="285">
+      <c r="T13" s="215">
         <v>0</v>
       </c>
       <c r="V13" s="2"/>
@@ -2715,20 +2720,20 @@
       <c r="I14" s="131">
         <v>302437</v>
       </c>
-      <c r="J14" s="274"/>
-      <c r="K14" s="276">
+      <c r="J14" s="204"/>
+      <c r="K14" s="206">
         <v>4500</v>
       </c>
       <c r="M14" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="P14" s="285">
+      <c r="P14" s="215">
         <v>0</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T14" s="289">
+      <c r="T14" s="218">
         <v>275</v>
       </c>
       <c r="U14" s="148"/>
@@ -2745,16 +2750,16 @@
       <c r="G15" s="10">
         <v>45744</v>
       </c>
-      <c r="H15" s="273" t="s">
+      <c r="H15" s="203" t="s">
         <v>125</v>
       </c>
       <c r="I15" s="131">
         <v>302438</v>
       </c>
-      <c r="J15" s="274">
+      <c r="J15" s="204">
         <v>275</v>
       </c>
-      <c r="K15" s="276"/>
+      <c r="K15" s="206"/>
       <c r="M15" s="11"/>
       <c r="P15" s="8"/>
       <c r="Q15" s="1"/>
@@ -2779,10 +2784,10 @@
       <c r="I16" s="131">
         <v>302439</v>
       </c>
-      <c r="J16" s="274">
+      <c r="J16" s="204">
         <v>174.23</v>
       </c>
-      <c r="K16" s="276"/>
+      <c r="K16" s="206"/>
       <c r="M16" s="11"/>
       <c r="P16" s="8"/>
       <c r="Q16" s="1"/>
@@ -2808,19 +2813,19 @@
         <v>302440</v>
       </c>
       <c r="J17" s="132"/>
-      <c r="K17" s="276">
+      <c r="K17" s="206">
         <v>16392</v>
       </c>
       <c r="M17" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="P17" s="285">
+      <c r="P17" s="215">
         <v>0</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="T17" s="289">
+      <c r="T17" s="218">
         <v>0</v>
       </c>
       <c r="U17" s="148"/>
@@ -2844,7 +2849,7 @@
       </c>
       <c r="N18" s="13"/>
       <c r="O18" s="13"/>
-      <c r="P18" s="285">
+      <c r="P18" s="215">
         <f>SUM(P9,P12,P13)</f>
         <v>26345.13</v>
       </c>
@@ -2853,7 +2858,7 @@
       </c>
       <c r="R18" s="13"/>
       <c r="S18" s="13"/>
-      <c r="T18" s="289">
+      <c r="T18" s="218">
         <v>26345.13</v>
       </c>
       <c r="U18" s="148"/>
@@ -2890,16 +2895,16 @@
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
       <c r="K20" s="21"/>
-      <c r="M20" s="203" t="s">
+      <c r="M20" s="278" t="s">
         <v>36</v>
       </c>
-      <c r="N20" s="204"/>
-      <c r="O20" s="204"/>
-      <c r="P20" s="204"/>
-      <c r="Q20" s="204"/>
-      <c r="R20" s="204"/>
-      <c r="S20" s="204"/>
-      <c r="T20" s="204"/>
+      <c r="N20" s="260"/>
+      <c r="O20" s="260"/>
+      <c r="P20" s="260"/>
+      <c r="Q20" s="260"/>
+      <c r="R20" s="260"/>
+      <c r="S20" s="260"/>
+      <c r="T20" s="260"/>
       <c r="U20" s="146"/>
       <c r="V20" s="147"/>
       <c r="W20" s="147"/>
@@ -2916,18 +2921,18 @@
       <c r="I21" s="21"/>
       <c r="J21" s="21"/>
       <c r="K21" s="21"/>
-      <c r="M21" s="205" t="s">
+      <c r="M21" s="279" t="s">
         <v>7</v>
       </c>
-      <c r="N21" s="206"/>
-      <c r="O21" s="206"/>
-      <c r="P21" s="206"/>
-      <c r="Q21" s="207" t="s">
+      <c r="N21" s="248"/>
+      <c r="O21" s="248"/>
+      <c r="P21" s="248"/>
+      <c r="Q21" s="280" t="s">
         <v>8</v>
       </c>
-      <c r="R21" s="204"/>
-      <c r="S21" s="204"/>
-      <c r="T21" s="208"/>
+      <c r="R21" s="260"/>
+      <c r="S21" s="260"/>
+      <c r="T21" s="261"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
@@ -2956,13 +2961,13 @@
       <c r="M23" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="P23" s="285">
+      <c r="P23" s="215">
         <v>25895.9</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T23" s="285">
+      <c r="T23" s="215">
         <v>9550.77</v>
       </c>
     </row>
@@ -2974,7 +2979,7 @@
       <c r="K24" s="21"/>
       <c r="M24" s="11"/>
       <c r="P24" s="6"/>
-      <c r="T24" s="291"/>
+      <c r="T24" s="220"/>
     </row>
     <row r="25" spans="7:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G25" s="21"/>
@@ -2985,13 +2990,13 @@
       <c r="M25" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="P25" s="290">
+      <c r="P25" s="219">
         <v>449.23</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="T25" s="285">
+      <c r="T25" s="215">
         <v>449.23</v>
       </c>
     </row>
@@ -3003,48 +3008,48 @@
       <c r="K26" s="132"/>
       <c r="M26" s="11"/>
       <c r="P26" s="6"/>
-      <c r="T26" s="291"/>
+      <c r="T26" s="220"/>
     </row>
     <row r="27" spans="7:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G27" s="220" t="s">
+      <c r="G27" s="268" t="s">
         <v>39</v>
       </c>
-      <c r="H27" s="213"/>
-      <c r="I27" s="282" t="s">
+      <c r="H27" s="258"/>
+      <c r="I27" s="212" t="s">
         <v>40</v>
       </c>
-      <c r="J27" s="277">
+      <c r="J27" s="207">
         <v>51672.77</v>
       </c>
-      <c r="K27" s="281" t="s">
+      <c r="K27" s="211" t="s">
         <v>126</v>
       </c>
-      <c r="M27" s="221" t="s">
+      <c r="M27" s="269" t="s">
         <v>41</v>
       </c>
-      <c r="N27" s="204"/>
-      <c r="O27" s="208"/>
-      <c r="P27" s="285">
+      <c r="N27" s="260"/>
+      <c r="O27" s="261"/>
+      <c r="P27" s="215">
         <v>26345.13</v>
       </c>
-      <c r="Q27" s="221" t="s">
+      <c r="Q27" s="269" t="s">
         <v>42</v>
       </c>
-      <c r="R27" s="204"/>
-      <c r="S27" s="208"/>
-      <c r="T27" s="285">
+      <c r="R27" s="260"/>
+      <c r="S27" s="261"/>
+      <c r="T27" s="215">
         <v>26345.13</v>
       </c>
     </row>
     <row r="28" spans="7:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G28" s="227" t="s">
+      <c r="G28" s="277" t="s">
         <v>43</v>
       </c>
-      <c r="H28" s="213"/>
-      <c r="I28" s="284" t="s">
+      <c r="H28" s="258"/>
+      <c r="I28" s="214" t="s">
         <v>44</v>
       </c>
-      <c r="J28" s="278">
+      <c r="J28" s="208">
         <v>9550.77</v>
       </c>
       <c r="K28" s="128"/>
@@ -3052,10 +3057,10 @@
     <row r="29" spans="7:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J29" s="127"/>
       <c r="K29" s="127"/>
-      <c r="M29" s="288" t="s">
+      <c r="M29" s="272" t="s">
         <v>129</v>
       </c>
-      <c r="N29" s="224"/>
+      <c r="N29" s="273"/>
       <c r="O29" s="15"/>
       <c r="P29" s="15"/>
       <c r="Q29" s="16" t="s">
@@ -3069,119 +3074,135 @@
       <c r="M30" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="N30" s="211"/>
-      <c r="O30" s="212"/>
-      <c r="P30" s="212"/>
-      <c r="Q30" s="212"/>
-      <c r="R30" s="213"/>
+      <c r="N30" s="274"/>
+      <c r="O30" s="271"/>
+      <c r="P30" s="271"/>
+      <c r="Q30" s="271"/>
+      <c r="R30" s="258"/>
     </row>
     <row r="31" spans="7:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="M31" s="18"/>
-      <c r="N31" s="211" t="s">
+      <c r="N31" s="274" t="s">
         <v>141</v>
       </c>
-      <c r="O31" s="212"/>
-      <c r="P31" s="213"/>
-      <c r="Q31" s="287"/>
+      <c r="O31" s="271"/>
+      <c r="P31" s="258"/>
+      <c r="Q31" s="217"/>
       <c r="R31" s="18"/>
     </row>
     <row r="32" spans="7:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="M32" s="41"/>
-      <c r="N32" s="214" t="s">
+      <c r="N32" s="270" t="s">
         <v>5</v>
       </c>
-      <c r="O32" s="212"/>
-      <c r="P32" s="213"/>
-      <c r="Q32" s="287">
+      <c r="O32" s="271"/>
+      <c r="P32" s="258"/>
+      <c r="Q32" s="217">
         <v>275</v>
       </c>
       <c r="R32" s="19"/>
     </row>
     <row r="33" spans="13:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="M33" s="41"/>
-      <c r="N33" s="214" t="s">
+      <c r="N33" s="270" t="s">
         <v>137</v>
       </c>
-      <c r="O33" s="212"/>
-      <c r="P33" s="213"/>
+      <c r="O33" s="271"/>
+      <c r="P33" s="258"/>
       <c r="Q33" s="134"/>
-      <c r="R33" s="297">
+      <c r="R33" s="226">
         <v>275</v>
       </c>
     </row>
     <row r="34" spans="13:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="M34" s="41"/>
-      <c r="N34" s="225"/>
-      <c r="O34" s="226"/>
-      <c r="P34" s="226"/>
+      <c r="N34" s="275"/>
+      <c r="O34" s="276"/>
+      <c r="P34" s="276"/>
       <c r="Q34" s="135"/>
       <c r="R34" s="136"/>
-      <c r="S34" s="209" t="s">
+      <c r="S34" s="281" t="s">
         <v>46</v>
       </c>
-      <c r="T34" s="209"/>
-      <c r="U34" s="209"/>
+      <c r="T34" s="281"/>
+      <c r="U34" s="281"/>
     </row>
     <row r="35" spans="13:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="M35" s="41"/>
-      <c r="N35" s="215"/>
-      <c r="O35" s="216"/>
-      <c r="P35" s="217"/>
+      <c r="N35" s="283"/>
+      <c r="O35" s="284"/>
+      <c r="P35" s="285"/>
       <c r="Q35" s="137"/>
       <c r="R35" s="139"/>
-      <c r="S35" s="210"/>
-      <c r="T35" s="209"/>
-      <c r="U35" s="209"/>
+      <c r="S35" s="282"/>
+      <c r="T35" s="281"/>
+      <c r="U35" s="281"/>
     </row>
     <row r="36" spans="13:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="M36" s="138" t="s">
         <v>128</v>
       </c>
-      <c r="N36" s="218"/>
-      <c r="O36" s="219"/>
-      <c r="P36" s="219"/>
+      <c r="N36" s="286"/>
+      <c r="O36" s="287"/>
+      <c r="P36" s="287"/>
       <c r="Q36" s="143"/>
       <c r="R36" s="142"/>
-      <c r="S36" s="209"/>
-      <c r="T36" s="209"/>
-      <c r="U36" s="209"/>
+      <c r="S36" s="281"/>
+      <c r="T36" s="281"/>
+      <c r="U36" s="281"/>
     </row>
     <row r="37" spans="13:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="M37" s="40"/>
-      <c r="N37" s="222" t="s">
+      <c r="N37" s="243" t="s">
         <v>124</v>
       </c>
-      <c r="O37" s="223"/>
-      <c r="P37" s="223"/>
-      <c r="Q37" s="286"/>
+      <c r="O37" s="244"/>
+      <c r="P37" s="244"/>
+      <c r="Q37" s="216"/>
       <c r="R37" s="141"/>
     </row>
     <row r="38" spans="13:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M38" s="40"/>
-      <c r="N38" s="222" t="s">
+      <c r="N38" s="243" t="s">
         <v>5</v>
       </c>
-      <c r="O38" s="223"/>
-      <c r="P38" s="223"/>
-      <c r="Q38" s="286">
+      <c r="O38" s="244"/>
+      <c r="P38" s="244"/>
+      <c r="Q38" s="216">
         <v>174.23</v>
       </c>
       <c r="R38" s="141"/>
     </row>
     <row r="39" spans="13:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M39" s="40"/>
-      <c r="N39" s="222" t="s">
+      <c r="N39" s="243" t="s">
         <v>142</v>
       </c>
-      <c r="O39" s="223"/>
-      <c r="P39" s="223"/>
+      <c r="O39" s="244"/>
+      <c r="P39" s="244"/>
       <c r="Q39" s="140"/>
-      <c r="R39" s="296">
+      <c r="R39" s="225">
         <v>174.23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="M20:T20"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="S34:U36"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="N30:R30"/>
+    <mergeCell ref="N34:P34"/>
     <mergeCell ref="N39:P39"/>
     <mergeCell ref="M8:O9"/>
     <mergeCell ref="Q8:S9"/>
@@ -3198,22 +3219,6 @@
     <mergeCell ref="Q10:T10"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="Q27:S27"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="N30:R30"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="M20:T20"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="S34:U36"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="N35:P35"/>
-    <mergeCell ref="N36:P36"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="M29:M30">
@@ -3251,24 +3256,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="248" t="s">
+      <c r="A1" s="289" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="229"/>
-      <c r="C1" s="229"/>
-      <c r="D1" s="229"/>
+      <c r="B1" s="246"/>
+      <c r="C1" s="246"/>
+      <c r="D1" s="246"/>
       <c r="E1" s="20"/>
       <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="248" t="s">
+      <c r="A2" s="289" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="229"/>
-      <c r="C2" s="229"/>
-      <c r="D2" s="229"/>
-      <c r="E2" s="249"/>
-      <c r="F2" s="229"/>
+      <c r="B2" s="246"/>
+      <c r="C2" s="246"/>
+      <c r="D2" s="246"/>
+      <c r="E2" s="290"/>
+      <c r="F2" s="246"/>
     </row>
     <row r="3" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
@@ -3294,7 +3299,7 @@
         <v>131</v>
       </c>
       <c r="C4" s="27"/>
-      <c r="D4" s="292"/>
+      <c r="D4" s="221"/>
       <c r="E4" s="161"/>
       <c r="F4" s="153"/>
     </row>
@@ -3304,7 +3309,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="23"/>
-      <c r="D5" s="293">
+      <c r="D5" s="222">
         <v>20000</v>
       </c>
       <c r="E5" s="161"/>
@@ -3315,7 +3320,7 @@
       <c r="B6" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="294">
+      <c r="C6" s="223">
         <v>20000</v>
       </c>
       <c r="D6" s="167"/>
@@ -3499,7 +3504,7 @@
         <v>61</v>
       </c>
       <c r="C22" s="34"/>
-      <c r="D22" s="293">
+      <c r="D22" s="222">
         <v>75000</v>
       </c>
       <c r="E22" s="163"/>
@@ -3511,7 +3516,7 @@
       <c r="B23" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="295">
+      <c r="C23" s="224">
         <v>75000</v>
       </c>
       <c r="D23" s="170"/>
@@ -3543,8 +3548,8 @@
       <c r="B26" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="C26" s="294"/>
-      <c r="D26" s="293">
+      <c r="C26" s="223"/>
+      <c r="D26" s="222">
         <v>35000</v>
       </c>
       <c r="E26" s="164"/>
@@ -3555,10 +3560,10 @@
       <c r="B27" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="295">
+      <c r="C27" s="224">
         <v>20000</v>
       </c>
-      <c r="D27" s="293"/>
+      <c r="D27" s="222"/>
       <c r="E27" s="164"/>
       <c r="F27" s="31"/>
     </row>
@@ -3567,10 +3572,10 @@
       <c r="B28" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="295">
+      <c r="C28" s="224">
         <v>35000</v>
       </c>
-      <c r="D28" s="293"/>
+      <c r="D28" s="222"/>
       <c r="E28" s="164"/>
       <c r="F28" s="31"/>
     </row>
@@ -3579,8 +3584,8 @@
       <c r="B29" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="295"/>
-      <c r="D29" s="293">
+      <c r="C29" s="224"/>
+      <c r="D29" s="222">
         <v>20000</v>
       </c>
       <c r="E29" s="164"/>
@@ -3612,7 +3617,7 @@
       <c r="B32" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="C32" s="294">
+      <c r="C32" s="223">
         <v>4000</v>
       </c>
       <c r="D32" s="170"/>
@@ -3625,10 +3630,10 @@
       <c r="B33" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="294">
+      <c r="C33" s="223">
         <v>500</v>
       </c>
-      <c r="D33" s="293"/>
+      <c r="D33" s="222"/>
       <c r="E33" s="162"/>
       <c r="F33" s="155"/>
     </row>
@@ -3638,7 +3643,7 @@
         <v>5</v>
       </c>
       <c r="C34" s="34"/>
-      <c r="D34" s="293">
+      <c r="D34" s="222">
         <v>4500</v>
       </c>
       <c r="E34" s="161"/>
@@ -3713,10 +3718,10 @@
       <c r="B41" s="18"/>
       <c r="C41" s="19"/>
       <c r="D41" s="172"/>
-      <c r="E41" s="250" t="s">
+      <c r="E41" s="291" t="s">
         <v>62</v>
       </c>
-      <c r="F41" s="229"/>
+      <c r="F41" s="246"/>
     </row>
     <row r="42" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="39"/>
@@ -3732,7 +3737,7 @@
       <c r="B43" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="287">
+      <c r="C43" s="217">
         <v>275</v>
       </c>
       <c r="D43" s="173"/>
@@ -3744,7 +3749,7 @@
         <v>137</v>
       </c>
       <c r="C44" s="18"/>
-      <c r="D44" s="298">
+      <c r="D44" s="227">
         <v>275</v>
       </c>
       <c r="E44" s="122"/>
@@ -3780,7 +3785,7 @@
       <c r="B48" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C48" s="287">
+      <c r="C48" s="217">
         <v>174.23</v>
       </c>
       <c r="D48" s="173"/>
@@ -3793,7 +3798,7 @@
         <v>142</v>
       </c>
       <c r="C49" s="19"/>
-      <c r="D49" s="298">
+      <c r="D49" s="227">
         <v>174.23</v>
       </c>
       <c r="E49" s="165"/>
@@ -3984,16 +3989,16 @@
       <c r="B73" s="1"/>
       <c r="C73" s="49"/>
       <c r="D73" s="127"/>
-      <c r="E73" s="251"/>
-      <c r="F73" s="252"/>
+      <c r="E73" s="292"/>
+      <c r="F73" s="293"/>
     </row>
     <row r="74" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="44"/>
       <c r="B74" s="1"/>
       <c r="C74" s="49"/>
       <c r="D74" s="127"/>
-      <c r="E74" s="253"/>
-      <c r="F74" s="252"/>
+      <c r="E74" s="294"/>
+      <c r="F74" s="293"/>
     </row>
     <row r="75" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="48"/>
@@ -4016,32 +4021,32 @@
       <c r="B77" s="1"/>
       <c r="C77" s="49"/>
       <c r="D77" s="127"/>
-      <c r="E77" s="251"/>
-      <c r="F77" s="252"/>
+      <c r="E77" s="292"/>
+      <c r="F77" s="293"/>
     </row>
     <row r="78" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="44"/>
       <c r="B78" s="1"/>
       <c r="C78" s="49"/>
       <c r="D78" s="127"/>
-      <c r="E78" s="254"/>
-      <c r="F78" s="252"/>
+      <c r="E78" s="295"/>
+      <c r="F78" s="293"/>
     </row>
     <row r="79" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="44"/>
       <c r="B79" s="1"/>
       <c r="C79" s="49"/>
       <c r="D79" s="47"/>
-      <c r="E79" s="254"/>
-      <c r="F79" s="252"/>
+      <c r="E79" s="295"/>
+      <c r="F79" s="293"/>
     </row>
     <row r="80" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="44"/>
       <c r="B80" s="1"/>
       <c r="C80" s="49"/>
       <c r="D80" s="47"/>
-      <c r="E80" s="254"/>
-      <c r="F80" s="252"/>
+      <c r="E80" s="295"/>
+      <c r="F80" s="293"/>
     </row>
     <row r="81" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="48"/>
@@ -4103,8 +4108,8 @@
       <c r="B88" s="1"/>
       <c r="C88" s="45"/>
       <c r="D88" s="45"/>
-      <c r="E88" s="251"/>
-      <c r="F88" s="252"/>
+      <c r="E88" s="292"/>
+      <c r="F88" s="293"/>
     </row>
     <row r="89" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="44"/>
@@ -4383,16 +4388,16 @@
       <c r="A125" s="52"/>
       <c r="C125" s="53"/>
       <c r="D125" s="53"/>
-      <c r="E125" s="249"/>
-      <c r="F125" s="229"/>
+      <c r="E125" s="290"/>
+      <c r="F125" s="246"/>
     </row>
     <row r="126" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="52"/>
       <c r="B126" s="54"/>
       <c r="C126" s="53"/>
       <c r="D126" s="53"/>
-      <c r="E126" s="247"/>
-      <c r="F126" s="229"/>
+      <c r="E126" s="288"/>
+      <c r="F126" s="246"/>
     </row>
     <row r="127" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="50"/>
@@ -4439,8 +4444,8 @@
       <c r="B132" s="54"/>
       <c r="C132" s="56"/>
       <c r="D132" s="55"/>
-      <c r="E132" s="247"/>
-      <c r="F132" s="229"/>
+      <c r="E132" s="288"/>
+      <c r="F132" s="246"/>
     </row>
     <row r="133" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="52"/>
@@ -7547,16 +7552,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C1" s="255" t="s">
+      <c r="C1" s="296" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="229"/>
-      <c r="E1" s="229"/>
-      <c r="G1" s="256" t="s">
+      <c r="D1" s="246"/>
+      <c r="E1" s="246"/>
+      <c r="G1" s="297" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="229"/>
-      <c r="I1" s="229"/>
+      <c r="H1" s="246"/>
+      <c r="I1" s="246"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C2" s="59"/>
@@ -7594,19 +7599,19 @@
       <c r="C4" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="299">
+      <c r="D4" s="228">
         <v>26226.1</v>
       </c>
-      <c r="E4" s="300">
+      <c r="E4" s="229">
         <v>42122</v>
       </c>
       <c r="G4" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="304">
+      <c r="H4" s="233">
         <v>26226.1</v>
       </c>
-      <c r="I4" s="307">
+      <c r="I4" s="236">
         <v>42122</v>
       </c>
     </row>
@@ -7614,19 +7619,19 @@
       <c r="C5" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="299">
+      <c r="D5" s="228">
         <v>35000</v>
       </c>
-      <c r="E5" s="300">
+      <c r="E5" s="229">
         <v>25776.87</v>
       </c>
       <c r="G5" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="H5" s="304">
+      <c r="H5" s="233">
         <v>35000</v>
       </c>
-      <c r="I5" s="307">
+      <c r="I5" s="236">
         <v>25776.87</v>
       </c>
     </row>
@@ -7634,20 +7639,20 @@
       <c r="C6" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="300">
+      <c r="D6" s="229">
         <v>75000</v>
       </c>
-      <c r="E6" s="299">
+      <c r="E6" s="228">
         <v>20000</v>
       </c>
       <c r="F6" s="68"/>
       <c r="G6" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="304">
+      <c r="H6" s="233">
         <v>75000</v>
       </c>
-      <c r="I6" s="304">
+      <c r="I6" s="233">
         <v>20000</v>
       </c>
     </row>
@@ -7655,20 +7660,20 @@
       <c r="C7" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="300">
+      <c r="D7" s="229">
         <v>140000</v>
       </c>
-      <c r="E7" s="300">
+      <c r="E7" s="229">
         <v>0</v>
       </c>
       <c r="F7" s="68"/>
       <c r="G7" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="300">
+      <c r="H7" s="229">
         <v>140000</v>
       </c>
-      <c r="I7" s="307">
+      <c r="I7" s="236">
         <v>0</v>
       </c>
     </row>
@@ -7676,20 +7681,20 @@
       <c r="C8" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="301">
+      <c r="D8" s="230">
         <v>0</v>
       </c>
-      <c r="E8" s="301">
+      <c r="E8" s="230">
         <v>25000</v>
       </c>
       <c r="F8" s="68"/>
       <c r="G8" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="H8" s="301">
+      <c r="H8" s="230">
         <v>0</v>
       </c>
-      <c r="I8" s="301">
+      <c r="I8" s="230">
         <v>25000</v>
       </c>
     </row>
@@ -7697,14 +7702,14 @@
       <c r="C9" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="D9" s="301">
+      <c r="D9" s="230">
         <v>25000</v>
       </c>
-      <c r="E9" s="301"/>
+      <c r="E9" s="230"/>
       <c r="F9" s="68"/>
       <c r="G9" s="69"/>
-      <c r="H9" s="301"/>
-      <c r="I9" s="312"/>
+      <c r="H9" s="230"/>
+      <c r="I9" s="241"/>
     </row>
     <row r="10" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
@@ -7712,20 +7717,20 @@
       <c r="C10" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="300">
+      <c r="D10" s="229">
         <v>6000</v>
       </c>
-      <c r="E10" s="300">
+      <c r="E10" s="229">
         <v>0</v>
       </c>
       <c r="F10" s="45"/>
       <c r="G10" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="H10" s="300">
+      <c r="H10" s="229">
         <v>6000</v>
       </c>
-      <c r="I10" s="309">
+      <c r="I10" s="238">
         <v>0</v>
       </c>
     </row>
@@ -7735,14 +7740,14 @@
       <c r="C11" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="D11" s="300"/>
-      <c r="E11" s="311">
+      <c r="D11" s="229"/>
+      <c r="E11" s="240">
         <v>65174.23</v>
       </c>
       <c r="F11" s="45"/>
       <c r="G11" s="70"/>
-      <c r="H11" s="300"/>
-      <c r="I11" s="309"/>
+      <c r="H11" s="229"/>
+      <c r="I11" s="238"/>
     </row>
     <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
@@ -7750,20 +7755,20 @@
       <c r="C12" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="301">
+      <c r="D12" s="230">
         <v>16392</v>
       </c>
-      <c r="E12" s="301">
+      <c r="E12" s="230">
         <v>75000</v>
       </c>
       <c r="F12" s="45"/>
       <c r="G12" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="305">
+      <c r="H12" s="234">
         <v>16392</v>
       </c>
-      <c r="I12" s="305">
+      <c r="I12" s="234">
         <v>75000</v>
       </c>
       <c r="J12" s="122"/>
@@ -7774,20 +7779,20 @@
       <c r="C13" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="301">
+      <c r="D13" s="230">
         <v>0</v>
       </c>
-      <c r="E13" s="301">
+      <c r="E13" s="230">
         <v>3000</v>
       </c>
       <c r="F13" s="45"/>
       <c r="G13" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="H13" s="306">
+      <c r="H13" s="235">
         <v>0</v>
       </c>
-      <c r="I13" s="310">
+      <c r="I13" s="239">
         <v>3000</v>
       </c>
     </row>
@@ -7797,20 +7802,20 @@
       <c r="C14" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="302">
+      <c r="D14" s="231">
         <v>0</v>
       </c>
-      <c r="E14" s="302">
+      <c r="E14" s="231">
         <v>6000</v>
       </c>
       <c r="F14" s="45"/>
       <c r="G14" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="H14" s="307">
+      <c r="H14" s="236">
         <v>0</v>
       </c>
-      <c r="I14" s="302">
+      <c r="I14" s="231">
         <v>6000</v>
       </c>
     </row>
@@ -7820,20 +7825,20 @@
       <c r="C15" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="299">
+      <c r="D15" s="228">
         <v>4000</v>
       </c>
-      <c r="E15" s="299">
+      <c r="E15" s="228">
         <v>0</v>
       </c>
       <c r="F15" s="45"/>
       <c r="G15" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="H15" s="304">
+      <c r="H15" s="233">
         <v>4000</v>
       </c>
-      <c r="I15" s="304">
+      <c r="I15" s="233">
         <v>65174.23</v>
       </c>
     </row>
@@ -7843,20 +7848,20 @@
       <c r="C16" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="299">
+      <c r="D16" s="228">
         <v>0</v>
       </c>
-      <c r="E16" s="299">
+      <c r="E16" s="228">
         <v>54000</v>
       </c>
       <c r="F16" s="45"/>
       <c r="G16" s="69" t="s">
         <v>106</v>
       </c>
-      <c r="H16" s="304">
+      <c r="H16" s="233">
         <v>0</v>
       </c>
-      <c r="I16" s="299">
+      <c r="I16" s="228">
         <v>54000</v>
       </c>
     </row>
@@ -7866,20 +7871,20 @@
       <c r="C17" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="299">
+      <c r="D17" s="228">
         <v>0</v>
       </c>
-      <c r="E17" s="299">
+      <c r="E17" s="228">
         <v>20000</v>
       </c>
       <c r="F17" s="45"/>
       <c r="G17" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="H17" s="304">
+      <c r="H17" s="233">
         <v>0</v>
       </c>
-      <c r="I17" s="299">
+      <c r="I17" s="228">
         <v>20000</v>
       </c>
     </row>
@@ -7890,17 +7895,17 @@
         <v>75</v>
       </c>
       <c r="D18" s="174"/>
-      <c r="E18" s="299">
+      <c r="E18" s="228">
         <v>35275</v>
       </c>
       <c r="F18" s="45"/>
       <c r="G18" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="H18" s="304">
+      <c r="H18" s="233">
         <v>0</v>
       </c>
-      <c r="I18" s="299">
+      <c r="I18" s="228">
         <v>35275</v>
       </c>
     </row>
@@ -7910,20 +7915,20 @@
       <c r="C19" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="300">
+      <c r="D19" s="229">
         <v>20000</v>
       </c>
-      <c r="E19" s="299">
+      <c r="E19" s="228">
         <v>0</v>
       </c>
       <c r="F19" s="45"/>
       <c r="G19" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="H19" s="300">
+      <c r="H19" s="229">
         <v>20000</v>
       </c>
-      <c r="I19" s="304">
+      <c r="I19" s="233">
         <v>0</v>
       </c>
     </row>
@@ -7933,20 +7938,20 @@
       <c r="C20" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="299">
+      <c r="D20" s="228">
         <v>20600</v>
       </c>
-      <c r="E20" s="299">
+      <c r="E20" s="228">
         <v>0</v>
       </c>
       <c r="F20" s="45"/>
       <c r="G20" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="H20" s="304">
+      <c r="H20" s="233">
         <v>20600</v>
       </c>
-      <c r="I20" s="304">
+      <c r="I20" s="233">
         <v>0</v>
       </c>
     </row>
@@ -7956,20 +7961,20 @@
       <c r="C21" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="299">
+      <c r="D21" s="228">
         <v>630</v>
       </c>
-      <c r="E21" s="300">
+      <c r="E21" s="229">
         <v>0</v>
       </c>
       <c r="F21" s="45"/>
       <c r="G21" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="H21" s="304">
+      <c r="H21" s="233">
         <v>630</v>
       </c>
-      <c r="I21" s="307">
+      <c r="I21" s="236">
         <v>0</v>
       </c>
     </row>
@@ -7979,18 +7984,18 @@
       <c r="C22" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="D22" s="300">
+      <c r="D22" s="229">
         <v>500</v>
       </c>
-      <c r="E22" s="300"/>
+      <c r="E22" s="229"/>
       <c r="F22" s="45"/>
       <c r="G22" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="H22" s="304">
+      <c r="H22" s="233">
         <v>500</v>
       </c>
-      <c r="I22" s="307">
+      <c r="I22" s="236">
         <v>0</v>
       </c>
     </row>
@@ -8000,20 +8005,20 @@
       <c r="C23" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="D23" s="300">
+      <c r="D23" s="229">
         <v>27000</v>
       </c>
-      <c r="E23" s="300">
+      <c r="E23" s="229">
         <v>0</v>
       </c>
       <c r="F23" s="45"/>
       <c r="G23" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="H23" s="300">
+      <c r="H23" s="229">
         <v>27000</v>
       </c>
-      <c r="I23" s="307">
+      <c r="I23" s="236">
         <v>0</v>
       </c>
     </row>
@@ -8021,21 +8026,21 @@
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="303">
+      <c r="D24" s="232">
         <f>SUM(D4:D23)</f>
         <v>396348.1</v>
       </c>
-      <c r="E24" s="303">
+      <c r="E24" s="232">
         <f>SUM(E3:E23)</f>
         <v>371348.1</v>
       </c>
       <c r="F24" s="45"/>
       <c r="G24" s="45"/>
-      <c r="H24" s="308">
+      <c r="H24" s="237">
         <f>SUM(H4:H23)</f>
         <v>371348.1</v>
       </c>
-      <c r="I24" s="308">
+      <c r="I24" s="237">
         <f>SUM(I3:I23)</f>
         <v>371348.1</v>
       </c>
@@ -8063,35 +8068,35 @@
     <row r="27" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="257" t="s">
+      <c r="C27" s="298" t="s">
         <v>109</v>
       </c>
-      <c r="D27" s="257"/>
-      <c r="E27" s="257"/>
-      <c r="F27" s="257"/>
-      <c r="G27" s="257"/>
+      <c r="D27" s="298"/>
+      <c r="E27" s="298"/>
+      <c r="F27" s="298"/>
+      <c r="G27" s="298"/>
       <c r="H27" s="73"/>
       <c r="I27" s="45"/>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="257"/>
-      <c r="D28" s="257"/>
-      <c r="E28" s="257"/>
-      <c r="F28" s="257"/>
-      <c r="G28" s="257"/>
+      <c r="C28" s="298"/>
+      <c r="D28" s="298"/>
+      <c r="E28" s="298"/>
+      <c r="F28" s="298"/>
+      <c r="G28" s="298"/>
       <c r="H28" s="73"/>
       <c r="I28" s="45"/>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="257"/>
-      <c r="D29" s="257"/>
-      <c r="E29" s="257"/>
-      <c r="F29" s="257"/>
-      <c r="G29" s="257"/>
+      <c r="C29" s="298"/>
+      <c r="D29" s="298"/>
+      <c r="E29" s="298"/>
+      <c r="F29" s="298"/>
+      <c r="G29" s="298"/>
       <c r="H29" s="73"/>
       <c r="I29" s="45"/>
     </row>
@@ -11024,10 +11029,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="260" t="s">
+      <c r="A1" s="301" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="259"/>
+      <c r="B1" s="300"/>
       <c r="C1" s="175"/>
       <c r="E1" s="176"/>
       <c r="F1" s="176"/>
@@ -11054,10 +11059,10 @@
       <c r="AA1" s="176"/>
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="258" t="s">
+      <c r="A2" s="299" t="s">
         <v>120</v>
       </c>
-      <c r="B2" s="259"/>
+      <c r="B2" s="300"/>
       <c r="C2" s="178"/>
       <c r="E2" s="176"/>
       <c r="F2" s="176"/>
@@ -11339,11 +11344,11 @@
       <c r="C11" s="191">
         <v>25000</v>
       </c>
-      <c r="E11" s="264" t="s">
+      <c r="E11" s="305" t="s">
         <v>123</v>
       </c>
-      <c r="F11" s="265"/>
-      <c r="G11" s="266"/>
+      <c r="F11" s="306"/>
+      <c r="G11" s="307"/>
       <c r="H11" s="176"/>
       <c r="I11" s="176"/>
       <c r="J11" s="176"/>
@@ -11373,9 +11378,9 @@
       <c r="C12" s="191">
         <v>6000</v>
       </c>
-      <c r="E12" s="267"/>
-      <c r="F12" s="268"/>
-      <c r="G12" s="269"/>
+      <c r="E12" s="308"/>
+      <c r="F12" s="309"/>
+      <c r="G12" s="310"/>
       <c r="H12" s="176"/>
       <c r="I12" s="176"/>
       <c r="J12" s="176"/>
@@ -11431,11 +11436,11 @@
       <c r="AA13" s="176"/>
     </row>
     <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="261" t="s">
+      <c r="A14" s="302" t="s">
         <v>113</v>
       </c>
-      <c r="B14" s="262"/>
-      <c r="C14" s="263"/>
+      <c r="B14" s="303"/>
+      <c r="C14" s="304"/>
       <c r="E14" s="176"/>
       <c r="F14" s="176"/>
       <c r="G14" s="176"/>
@@ -13253,12 +13258,12 @@
       <c r="F77" s="176"/>
       <c r="G77" s="176"/>
       <c r="H77" s="176"/>
-      <c r="I77" s="258"/>
-      <c r="J77" s="259"/>
-      <c r="K77" s="258"/>
-      <c r="L77" s="259"/>
-      <c r="M77" s="258"/>
-      <c r="N77" s="259"/>
+      <c r="I77" s="299"/>
+      <c r="J77" s="300"/>
+      <c r="K77" s="299"/>
+      <c r="L77" s="300"/>
+      <c r="M77" s="299"/>
+      <c r="N77" s="300"/>
       <c r="O77" s="176"/>
       <c r="P77" s="176"/>
       <c r="Q77" s="176"/>
@@ -39298,7 +39303,7 @@
       <c r="H4" s="89" t="s">
         <v>90</v>
       </c>
-      <c r="I4" s="313">
+      <c r="I4" s="242">
         <v>0.44619999999999999</v>
       </c>
       <c r="J4" s="90">
@@ -39360,11 +39365,11 @@
     </row>
     <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="73"/>
-      <c r="B7" s="270" t="s">
+      <c r="B7" s="311" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="229"/>
-      <c r="D7" s="271"/>
+      <c r="C7" s="246"/>
+      <c r="D7" s="312"/>
       <c r="E7" s="82"/>
       <c r="F7" s="82"/>
       <c r="K7" s="59"/>
@@ -39736,8 +39741,8 @@
     </row>
     <row r="76" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="73"/>
-      <c r="B76" s="272"/>
-      <c r="C76" s="229"/>
+      <c r="B76" s="313"/>
+      <c r="C76" s="246"/>
     </row>
     <row r="77" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="73"/>
